--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipp/Nextcloud/LEHRPLANUNG_shared/S23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/github/lehrplanung/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C525EF-FFA6-6144-804F-77CD00ECD43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D93B08D-4B6F-3A4A-8CCC-E15619F2159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="21740" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14760" yWindow="2020" windowWidth="21740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrangebot" sheetId="1" r:id="rId1"/>
@@ -460,10 +460,10 @@
     <t>Introduction to Social Sciences Methods: Statistics, text mining and WebScraping in R</t>
   </si>
   <si>
-    <t>Culture &amp; Values TBD</t>
-  </si>
-  <si>
     <t>Lehrplanung Sommersemester 2023</t>
+  </si>
+  <si>
+    <t>Emotional Strification</t>
   </si>
 </sst>
 </file>
@@ -635,10 +635,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -868,10 +868,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="I35" sqref="I35"/>
+      <selection pane="topRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2325,8 +2325,8 @@
       <c r="AP39" s="9"/>
     </row>
     <row r="40" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>50</v>
+      <c r="A40" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>38</v>
@@ -2335,21 +2335,21 @@
       <c r="E40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>42</v>
+      <c r="G40" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="I40" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1">
         <v>2</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" ref="K40" si="2">I40+J40</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AP40" s="9"/>
     </row>
@@ -2467,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2482,8 +2482,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>141</v>
+      <c r="A2" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/github/lehrplanung/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D93B08D-4B6F-3A4A-8CCC-E15619F2159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E76BF-CC16-C246-8FB9-49D91EFB64D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14760" yWindow="2020" windowWidth="21740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,18 +463,25 @@
     <t>Lehrplanung Sommersemester 2023</t>
   </si>
   <si>
-    <t>Emotional Strification</t>
+    <t>TBC Emotional Strification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,56 +593,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -871,7 +878,7 @@
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="J40" sqref="J40"/>
+      <selection pane="topRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/github/lehrplanung/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E76BF-CC16-C246-8FB9-49D91EFB64D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2B2C4-C515-B745-B542-033B56827EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14760" yWindow="2020" windowWidth="21740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="141">
   <si>
     <t>Modul</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>alt_Modul</t>
-  </si>
-  <si>
-    <t>tbc</t>
   </si>
   <si>
     <t>Dauer</t>
@@ -875,10 +872,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="G40" sqref="G40"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,19 +950,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>8</v>
@@ -1186,7 +1183,7 @@
         <v>108</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -1295,7 +1292,7 @@
         <v>103</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -1326,7 +1323,7 @@
         <v>103</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>42</v>
@@ -1393,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
@@ -1424,7 +1421,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -1556,20 +1553,20 @@
         <v>104</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="I16" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16"/>
@@ -1590,20 +1587,20 @@
         <v>105</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
       </c>
       <c r="I17" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17"/>
@@ -1833,7 +1830,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>51</v>
@@ -1862,7 +1859,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>42</v>
@@ -1888,7 +1885,7 @@
         <v>16</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP25" s="8"/>
       <c r="AQ25" s="9"/>
@@ -1905,7 +1902,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>51</v>
@@ -1937,7 +1934,7 @@
         <v>66</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>42</v>
@@ -1969,7 +1966,7 @@
         <v>66</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>51</v>
@@ -2001,7 +1998,7 @@
         <v>44</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>45</v>
@@ -2111,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>51</v>
@@ -2169,7 +2166,7 @@
         <v>41</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>51</v>
@@ -2198,7 +2195,7 @@
         <v>41</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>42</v>
@@ -2227,7 +2224,7 @@
         <v>41</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>51</v>
@@ -2253,10 +2250,10 @@
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>132</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>45</v>
@@ -2282,7 +2279,7 @@
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>67</v>
@@ -2314,7 +2311,7 @@
         <v>52</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="21" t="s">
         <v>42</v>
@@ -2343,7 +2340,7 @@
         <v>52</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="27" t="s">
         <v>51</v>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/github/lehrplanung/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B2B2C4-C515-B745-B542-033B56827EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F8400-0A31-304F-9D75-C4AA0D3ADB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="2020" windowWidth="21740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13700" yWindow="2000" windowWidth="16560" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrangebot" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="139">
   <si>
     <t>Modul</t>
   </si>
@@ -328,9 +328,6 @@
     <t>MA-Colloquium Sociology</t>
   </si>
   <si>
-    <t>Research Colloquium Social Science</t>
-  </si>
-  <si>
     <t>The Sociology of Values: Comparative Perspectives</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
     <t>32615a</t>
   </si>
   <si>
-    <t>32620a</t>
-  </si>
-  <si>
     <t>32102a</t>
   </si>
   <si>
@@ -436,21 +430,6 @@
     <t>Religiosity in European Societies</t>
   </si>
   <si>
-    <t>(Mod?) Social Capital, Trust, and Networks</t>
-  </si>
-  <si>
-    <t>(Mod?) Questionnaire and Survey Design in Studying Corruption</t>
-  </si>
-  <si>
-    <t>(Mod?) Sociology of Social Problems</t>
-  </si>
-  <si>
-    <t>(Mod?) Guilt, Debt and Social Subjugation</t>
-  </si>
-  <si>
-    <t>(Mod?) Race (tbc)</t>
-  </si>
-  <si>
     <t>Sociology of Conspiracy Theories</t>
   </si>
   <si>
@@ -460,14 +439,29 @@
     <t>Lehrplanung Sommersemester 2023</t>
   </si>
   <si>
-    <t>TBC Emotional Strification</t>
+    <t>Sociology of Social Problems</t>
+  </si>
+  <si>
+    <t>Emotional Stratification</t>
+  </si>
+  <si>
+    <t>Race (tbc)</t>
+  </si>
+  <si>
+    <t>Social Capital, Trust, and Networks</t>
+  </si>
+  <si>
+    <t>Questionnaire and Survey Design in Studying Corruption</t>
+  </si>
+  <si>
+    <t>Guilt, Debt and Social Subjugation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,6 +554,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -640,9 +640,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -870,12 +872,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -938,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -950,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>8</v>
@@ -1100,7 +1102,7 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>89</v>
@@ -1133,6 +1135,9 @@
     </row>
     <row r="4" spans="1:44" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
@@ -1140,10 +1145,10 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>90</v>
@@ -1180,10 +1185,10 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
@@ -1214,7 +1219,7 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>91</v>
@@ -1257,13 +1262,13 @@
         <v>31301</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
+      <c r="H7" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -1289,10 +1294,10 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>132</v>
+        <v>102</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -1320,13 +1325,13 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
+        <v>102</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -1389,8 +1394,8 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>134</v>
+      <c r="G11" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
@@ -1420,8 +1425,8 @@
       <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>135</v>
+      <c r="G12" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -1448,7 +1453,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
@@ -1481,7 +1486,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
         <v>65</v>
@@ -1506,35 +1511,10 @@
       <c r="M14"/>
       <c r="AP14" s="9"/>
     </row>
-    <row r="15" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="1">
-        <v>18</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="D15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="J15"/>
       <c r="L15" s="22"/>
       <c r="M15"/>
       <c r="AO15"/>
@@ -1550,10 +1530,10 @@
       </c>
       <c r="D16" s="19"/>
       <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
@@ -1581,13 +1561,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
         <v>58</v>
@@ -1696,20 +1676,20 @@
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="I20" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20"/>
@@ -1730,20 +1710,20 @@
         <v>53</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>42</v>
+        <v>97</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="I21" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21"/>
@@ -1799,7 +1779,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
@@ -1830,7 +1810,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>51</v>
@@ -1859,7 +1839,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>42</v>
@@ -1885,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AP25" s="8"/>
       <c r="AQ25" s="9"/>
@@ -1902,7 +1882,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>51</v>
@@ -1934,7 +1914,7 @@
         <v>66</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>42</v>
@@ -1966,7 +1946,7 @@
         <v>66</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>51</v>
@@ -1998,20 +1978,20 @@
         <v>44</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>45</v>
+        <v>123</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="I29" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO29"/>
       <c r="AP29" s="8"/>
@@ -2108,7 +2088,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>51</v>
@@ -2166,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>51</v>
@@ -2184,7 +2164,10 @@
       <c r="AP34" s="9"/>
     </row>
     <row r="35" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -2195,7 +2178,7 @@
         <v>41</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H35" s="21" t="s">
         <v>42</v>
@@ -2224,7 +2207,7 @@
         <v>41</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>51</v>
@@ -2250,10 +2233,10 @@
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>45</v>
@@ -2279,7 +2262,7 @@
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>67</v>
@@ -2311,10 +2294,10 @@
         <v>52</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="I39" s="1">
         <v>14</v>
@@ -2339,8 +2322,8 @@
       <c r="E40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>140</v>
+      <c r="G40" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="H40" s="27" t="s">
         <v>51</v>
@@ -2373,6 +2356,9 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AO44" s="7"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:AB44" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2476,6 +2462,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2487,7 +2476,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/github/lehrplanung/summer23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F8400-0A31-304F-9D75-C4AA0D3ADB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34BA0D-E51C-AD4E-A892-1B024F5843AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="2000" windowWidth="16560" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15500" yWindow="1560" windowWidth="18980" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrangebot" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadaten" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lehrangebot!$D$1:$AB$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lehrangebot!$A$1:$AR$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -461,11 +461,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,6 +570,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -578,8 +595,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -590,64 +608,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,10 +891,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="N12" sqref="N12"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,7 +902,7 @@
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="93.33203125" style="2" customWidth="1"/>
@@ -1055,103 +1072,83 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="19"/>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
+      <c r="E2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I2" s="1">
-        <v>12</v>
-      </c>
-      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1">
         <f>I2+J2</f>
-        <v>14</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1">
-        <f>M2+J2</f>
-        <v>14</v>
-      </c>
-      <c r="AP2" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="AO2"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
     </row>
     <row r="3" spans="1:44" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K39" si="0">I3+J3</f>
-        <v>16</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N25" si="1">M3+J3</f>
-        <v>16</v>
-      </c>
+        <f>I3+J3</f>
+        <v>18</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3"/>
       <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
     </row>
     <row r="4" spans="1:44" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -1163,140 +1160,122 @@
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
+        <f>I4+J4</f>
         <v>18</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="21"/>
       <c r="M4"/>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="14"/>
+      <c r="U4" s="17"/>
+      <c r="AO4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
     </row>
     <row r="5" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
+      <c r="A5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D5" s="19"/>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
+      <c r="E5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I5" s="1">
         <v>14</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="0"/>
+        <f>I5+J5</f>
         <v>16</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5"/>
-      <c r="AO5"/>
+      <c r="AO5" s="7"/>
     </row>
     <row r="6" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+      <c r="A6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
+      <c r="E6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
+        <f>I6+J6</f>
+        <v>20</v>
+      </c>
+      <c r="AP6" s="9"/>
+    </row>
+    <row r="7" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="30">
+        <v>30201</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
         <v>12</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="AO6" s="7"/>
-    </row>
-    <row r="7" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="19">
-        <v>31301</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
+        <f>I7+J7</f>
+        <v>14</v>
+      </c>
+      <c r="AO7"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
     </row>
     <row r="8" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="30">
+        <v>30202</v>
+      </c>
       <c r="E8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>136</v>
       </c>
       <c r="H8" t="s">
@@ -1309,29 +1288,34 @@
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f>I8+J8</f>
         <v>14</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="21"/>
       <c r="M8"/>
       <c r="AP8" s="9"/>
     </row>
     <row r="9" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="30">
+        <v>30203</v>
+      </c>
       <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -1340,310 +1324,358 @@
         <v>2</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f>I9+J9</f>
         <v>12</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9"/>
-      <c r="AP9" s="15"/>
+      <c r="L9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <f>M9+J9</f>
+        <v>12</v>
+      </c>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
     </row>
     <row r="10" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="19">
-        <v>31302</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
+      <c r="A10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="30">
+        <v>30204</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1">
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10"/>
+        <f>I10+J10</f>
+        <v>14</v>
+      </c>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-    </row>
-    <row r="11" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="19">
-        <v>31303</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
+    </row>
+    <row r="11" spans="1:44" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="30">
+        <v>30205</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="I11" s="1">
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f>I11+J11</f>
         <v>14</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11"/>
-      <c r="AP11" s="7"/>
+      <c r="L11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M11+J11</f>
+        <v>16</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="9"/>
     </row>
     <row r="12" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="30">
+        <v>30206</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I12" s="1">
         <v>12</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f>I12+J12</f>
         <v>14</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12"/>
+      <c r="L12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="1">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1">
+        <v>18</v>
+      </c>
+      <c r="AO12" s="14"/>
       <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
     </row>
     <row r="13" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" t="s">
-        <v>58</v>
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="30">
+        <v>30207</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I13" s="1">
-        <v>12</v>
-      </c>
-      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1">
         <v>2</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13"/>
+        <f>I13+J13</f>
+        <v>18</v>
+      </c>
       <c r="AP13" s="9"/>
     </row>
     <row r="14" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
+      <c r="A14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="30">
+        <v>30208</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="I14" s="1">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>2</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="0"/>
+        <f>I14+J14</f>
         <v>18</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14"/>
       <c r="AP14" s="9"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="D15" s="19"/>
-      <c r="H15" s="21"/>
-      <c r="J15"/>
-      <c r="L15" s="22"/>
-      <c r="M15"/>
-      <c r="AO15"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="16"/>
+    <row r="15" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="30">
+        <v>30209</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15+J15</f>
+        <v>12</v>
+      </c>
+      <c r="AP15" s="9"/>
     </row>
     <row r="16" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>62</v>
+      <c r="A16" t="s">
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="30">
+        <v>30210</v>
+      </c>
       <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16"/>
+        <f>I16+J16</f>
+        <v>16</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1">
+        <f>M16+J16</f>
+        <v>16</v>
+      </c>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
     </row>
-    <row r="17" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>62</v>
+    <row r="17" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>110</v>
+      <c r="D17" s="19">
+        <v>31303</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>131</v>
+        <v>55</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L17" s="22"/>
+        <f>I17+J17</f>
+        <v>14</v>
+      </c>
+      <c r="L17" s="21"/>
       <c r="M17"/>
-      <c r="AP17" s="9"/>
-    </row>
-    <row r="18" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="AP17" s="7"/>
+    </row>
+    <row r="18" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="30">
+        <v>30211</v>
+      </c>
       <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-    </row>
-    <row r="19" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+        <f>I18+J18</f>
+        <v>14</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18"/>
+      <c r="AP18" s="9"/>
+    </row>
+    <row r="19" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="30">
+        <v>30212</v>
+      </c>
       <c r="E19" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="1">
@@ -1653,15 +1685,15 @@
         <v>2</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="0"/>
+        <f>I19+J19</f>
         <v>16</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="21"/>
       <c r="M19"/>
       <c r="U19" s="17"/>
       <c r="AP19" s="9"/>
     </row>
-    <row r="20" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1671,14 +1703,16 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="30">
+        <v>30213</v>
+      </c>
       <c r="E20" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="1">
@@ -1688,331 +1722,366 @@
         <v>2</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="0"/>
+        <f>I20+J20</f>
         <v>16</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="21"/>
       <c r="M20"/>
       <c r="AB20" s="18"/>
       <c r="AN20" s="18"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
     </row>
-    <row r="21" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>39</v>
+    <row r="21" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="30">
+        <v>30214</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1">
         <v>2</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="0"/>
+        <f>I21+J21</f>
+        <v>16</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="12"/>
+    </row>
+    <row r="22" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="30">
+        <v>30215</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1">
         <v>12</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21"/>
-      <c r="AB21" s="18"/>
-      <c r="AN21" s="18"/>
-    </row>
-    <row r="22" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="1">
-        <v>16</v>
-      </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>2</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22"/>
-      <c r="U22" s="17"/>
-      <c r="AO22"/>
-      <c r="AQ22"/>
-      <c r="AR22"/>
-    </row>
-    <row r="23" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+        <f>I22+J22</f>
+        <v>14</v>
+      </c>
+      <c r="AP22" s="9"/>
+    </row>
+    <row r="23" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="30">
+        <v>30216</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23+J23</f>
+        <v>16</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23"/>
+      <c r="AO23"/>
+    </row>
+    <row r="24" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="30">
+        <v>30217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="1">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24+J24</f>
         <v>18</v>
       </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23"/>
-      <c r="AP23" s="9"/>
-    </row>
-    <row r="24" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="L24" s="21"/>
+      <c r="M24"/>
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP24" s="14"/>
+    </row>
+    <row r="25" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="30">
+        <v>30218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25+J25</f>
         <v>12</v>
       </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AP24" s="9"/>
-    </row>
-    <row r="25" spans="1:44" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="L25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1">
+        <f>M25+J25</f>
+        <v>12</v>
+      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="AO25" s="7"/>
+    </row>
+    <row r="26" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="19">
+        <v>31301</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26+J26</f>
         <v>12</v>
       </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="1">
-        <v>14</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AB25" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="9"/>
-    </row>
-    <row r="26" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="1">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="21"/>
+      <c r="M26"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+    </row>
+    <row r="27" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="19">
+        <v>31302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
         <v>45</v>
-      </c>
-      <c r="AC26" s="12"/>
-    </row>
-    <row r="27" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="0"/>
+        <f>I27+J27</f>
         <v>12</v>
       </c>
-      <c r="L27" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="L27" s="21"/>
+      <c r="M27"/>
       <c r="AP27" s="9"/>
-    </row>
-    <row r="28" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="AQ27" s="9"/>
+    </row>
+    <row r="28" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="30">
+        <v>30219</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="1">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <f>I28+J28</f>
+        <v>20</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28"/>
+      <c r="AP28" s="9"/>
+    </row>
+    <row r="29" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="30">
+        <v>30220</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="1">
         <v>16</v>
       </c>
-      <c r="J28" s="1">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <f>I29+J29</f>
         <v>18</v>
       </c>
-      <c r="AO28"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28"/>
-      <c r="AR28"/>
-    </row>
-    <row r="29" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="1">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
+      <c r="L29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="1">
         <v>14</v>
       </c>
-      <c r="AO29"/>
-      <c r="AP29" s="8"/>
-      <c r="AQ29"/>
-      <c r="AR29"/>
-    </row>
-    <row r="30" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="N29" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP29" s="9"/>
+    </row>
+    <row r="30" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="21" t="s">
+      <c r="C30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="30">
+        <v>30221</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I30" s="1">
@@ -2022,281 +2091,304 @@
         <v>2</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="0"/>
+        <f>I30+J30</f>
         <v>18</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="AP30" s="8"/>
+    </row>
+    <row r="31" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="30">
+        <v>30222</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="1">
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <f>I31+J31</f>
+        <v>12</v>
+      </c>
+      <c r="AO31" s="7"/>
+    </row>
+    <row r="32" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="30">
+        <v>30223</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="1">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <f>I32+J32</f>
         <v>14</v>
       </c>
-      <c r="N30" s="1">
+      <c r="L32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1">
+        <f>M32+J32</f>
+        <v>14</v>
+      </c>
+      <c r="AP32" s="9"/>
+    </row>
+    <row r="33" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="30">
+        <v>30224</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1">
+        <f>I33+J33</f>
+        <v>12</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33"/>
+      <c r="AP33" s="15"/>
+    </row>
+    <row r="34" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="1">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <f>I34+J34</f>
+        <v>14</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34"/>
+      <c r="AP34" s="9"/>
+    </row>
+    <row r="35" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="30">
+        <v>30225</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="1">
         <v>18</v>
       </c>
-      <c r="AP30" s="9"/>
-    </row>
-    <row r="31" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1">
+        <f>I35+J35</f>
+        <v>26</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+    </row>
+    <row r="36" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="1">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1">
+        <f>I36+J36</f>
+        <v>26</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36"/>
+      <c r="AP36" s="9"/>
+    </row>
+    <row r="37" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="30">
+        <v>30226</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <f>I37+J37</f>
         <v>12</v>
       </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" s="1">
+      <c r="L37" s="21"/>
+      <c r="M37"/>
+      <c r="AB37" s="18"/>
+      <c r="AN37" s="18"/>
+    </row>
+    <row r="38" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="30">
+        <v>30227</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <f>I38+J38</f>
         <v>12</v>
       </c>
-      <c r="N31" s="1">
-        <v>18</v>
-      </c>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="9"/>
-      <c r="AQ31" s="9"/>
-    </row>
-    <row r="32" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AP32" s="9"/>
-    </row>
-    <row r="33" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="1">
-        <v>16</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AP33" s="8"/>
-    </row>
-    <row r="34" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="1">
-        <v>16</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AP34" s="9"/>
-    </row>
-    <row r="35" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="L38" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP38" s="9"/>
+    </row>
+    <row r="39" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AO35" s="7"/>
-    </row>
-    <row r="36" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="1">
-        <v>14</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AO36" s="7"/>
-    </row>
-    <row r="37" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="1">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AP37" s="9"/>
-    </row>
-    <row r="38" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1">
-        <v>18</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AP38" s="9"/>
-    </row>
-    <row r="39" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="21" t="s">
+      <c r="C39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="30">
+        <v>30228</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I39" s="1">
@@ -2306,62 +2398,47 @@
         <v>2</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="0"/>
+        <f>I39+J39</f>
         <v>16</v>
       </c>
       <c r="AP39" s="9"/>
     </row>
-    <row r="40" spans="1:42" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>38</v>
-      </c>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D40" s="19"/>
-      <c r="E40" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="1">
-        <v>16</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" ref="K40" si="2">I40+J40</f>
-        <v>18</v>
-      </c>
-      <c r="AP40" s="9"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="H40" s="20"/>
+      <c r="J40"/>
+      <c r="L40" s="21"/>
+      <c r="M40"/>
+      <c r="AO40"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="16"/>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D41" s="6"/>
       <c r="AO41" s="8"/>
       <c r="AP41" s="13"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D42" s="6"/>
       <c r="AC42" s="12"/>
       <c r="AO42" s="7"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D43" s="6"/>
       <c r="AO43" s="7"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AO44" s="7"/>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G54" s="30"/>
+      <c r="G54" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:AB44" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AR54" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR54">
+      <sortCondition ref="A1:A54"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2475,7 +2552,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B2">

--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/github/lehrplanung/summer23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/Nextcloud/LEHRPLANUNG_shared/S23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34BA0D-E51C-AD4E-A892-1B024F5843AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD124C5-8E0E-A447-BFB1-4615F80C4493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15500" yWindow="1560" windowWidth="18980" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="780" windowWidth="34760" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrangebot" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadaten" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lehrangebot!$A$1:$AR$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lehrangebot!$A$1:$AS$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="159">
   <si>
     <t>Modul</t>
   </si>
@@ -455,6 +455,66 @@
   </si>
   <si>
     <t>Guilt, Debt and Social Subjugation</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>30229</t>
+  </si>
+  <si>
+    <t>30230</t>
+  </si>
+  <si>
+    <t>30231</t>
+  </si>
+  <si>
+    <t>30232</t>
+  </si>
+  <si>
+    <t>Room 3</t>
+  </si>
+  <si>
+    <t>55/A</t>
+  </si>
+  <si>
+    <t>21/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/G </t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>55/302b</t>
+  </si>
+  <si>
+    <t>55/302a</t>
+  </si>
+  <si>
+    <t>55/323</t>
+  </si>
+  <si>
+    <t>55/301</t>
+  </si>
+  <si>
+    <t>55/121</t>
+  </si>
+  <si>
+    <t>55/105</t>
+  </si>
+  <si>
+    <t>55/B</t>
+  </si>
+  <si>
+    <t>22/UG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/UG2 </t>
+  </si>
+  <si>
+    <t>PC Pool</t>
   </si>
 </sst>
 </file>
@@ -464,11 +524,32 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,6 +658,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -597,9 +683,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -608,59 +694,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -889,15 +979,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR54"/>
+  <dimension ref="A1:AS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
+      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -911,36 +1001,37 @@
     <col min="10" max="10" width="6.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="99" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="42" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="99" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="10" customFormat="1" ht="17">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -990,262 +1081,299 @@
         <v>9</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="1:45" ht="17">
+      <c r="A2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>51</v>
+      <c r="D2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="1">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1">
+        <v>12</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" s="1">
-        <f>I2+J2</f>
+        <f t="shared" ref="K2:K39" si="0">I2+J2</f>
+        <v>14</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2"/>
+      <c r="O2" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ2" s="9"/>
+    </row>
+    <row r="3" spans="1:45" ht="17">
+      <c r="A3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1">
         <v>18</v>
       </c>
-      <c r="AO2"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-    </row>
-    <row r="3" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1">
-        <v>16</v>
-      </c>
       <c r="J3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1">
-        <f>I3+J3</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3"/>
-      <c r="AP3" s="9"/>
-    </row>
-    <row r="4" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>67</v>
+      <c r="O3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+    </row>
+    <row r="4" spans="1:45" ht="17">
+      <c r="A4" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K4" s="1">
-        <f>I4+J4</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4"/>
-      <c r="U4" s="17"/>
-      <c r="AO4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-    </row>
-    <row r="5" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="O4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" s="9"/>
+    </row>
+    <row r="5" spans="1:45" ht="17">
       <c r="A5" s="20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="D5" s="30">
+        <v>30209</v>
+      </c>
       <c r="E5" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
       </c>
       <c r="K5" s="1">
-        <f>I5+J5</f>
-        <v>16</v>
-      </c>
-      <c r="AO5" s="7"/>
-    </row>
-    <row r="6" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ5" s="9"/>
+    </row>
+    <row r="6" spans="1:45" ht="17">
       <c r="A6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="30">
+        <v>30224</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="I6" s="1">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="1">
-        <f>I6+J6</f>
-        <v>20</v>
-      </c>
-      <c r="AP6" s="9"/>
-    </row>
-    <row r="7" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6"/>
+      <c r="O6" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ6" s="15"/>
+    </row>
+    <row r="7" spans="1:45" ht="17">
       <c r="A7" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="30">
-        <v>30201</v>
+        <v>30204</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>39</v>
+        <v>113</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I7" s="1">
         <v>12</v>
@@ -1254,211 +1382,249 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <f>I7+J7</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AO7"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-    </row>
-    <row r="8" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="O7" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ7" s="9"/>
+    </row>
+    <row r="8" spans="1:45" ht="17">
       <c r="A8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="30">
-        <v>30202</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
+        <v>30206</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I8" s="1">
         <v>12</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <f>I8+J8</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8"/>
-      <c r="AP8" s="9"/>
-    </row>
-    <row r="9" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="L8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1">
+        <v>18</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+    </row>
+    <row r="9" spans="1:45" ht="17">
+      <c r="A9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP9" s="7"/>
+    </row>
+    <row r="10" spans="1:45" ht="17">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="30">
-        <v>30203</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9+J9</f>
-        <v>12</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1">
-        <f>M9+J9</f>
-        <v>12</v>
-      </c>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-    </row>
-    <row r="10" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="30">
-        <v>30204</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="20" t="s">
+        <v>30210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="1">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" s="1">
-        <f>I10+J10</f>
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10">
         <v>14</v>
       </c>
-      <c r="AP10" s="9"/>
-    </row>
-    <row r="11" spans="1:44" ht="34" x14ac:dyDescent="0.2">
+      <c r="N10" s="1">
+        <f>M10+J10</f>
+        <v>16</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+    </row>
+    <row r="11" spans="1:45" ht="17">
       <c r="A11" s="20" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="30">
-        <v>30205</v>
+        <v>30214</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1">
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <f>I11+J11</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="1">
-        <v>14</v>
-      </c>
-      <c r="N11" s="1">
-        <f>M11+J11</f>
-        <v>16</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="9"/>
-    </row>
-    <row r="12" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD11" s="12"/>
+    </row>
+    <row r="12" spans="1:45" ht="17">
       <c r="A12" s="20" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="30">
-        <v>30206</v>
+        <v>68</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <f>I12+J12</f>
-        <v>14</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="1">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-    </row>
-    <row r="13" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="O12" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP12"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+    </row>
+    <row r="13" spans="1:45" ht="17">
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
@@ -1484,12 +1650,21 @@
         <v>2</v>
       </c>
       <c r="K13" s="1">
-        <f>I13+J13</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AP13" s="9"/>
-    </row>
-    <row r="14" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="O13" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ13" s="9"/>
+    </row>
+    <row r="14" spans="1:45" ht="17">
       <c r="A14" s="26" t="s">
         <v>37</v>
       </c>
@@ -1515,185 +1690,256 @@
         <v>2</v>
       </c>
       <c r="K14" s="1">
-        <f>I14+J14</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AP14" s="9"/>
-    </row>
-    <row r="15" spans="1:44" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>43</v>
+      <c r="O14" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ14" s="9"/>
+    </row>
+    <row r="15" spans="1:45" ht="17">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="30">
-        <v>30209</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="20" t="s">
+        <v>30219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
       </c>
       <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+        <v>18</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <f>I15+J15</f>
-        <v>12</v>
-      </c>
-      <c r="AP15" s="9"/>
-    </row>
-    <row r="16" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15"/>
+      <c r="O15" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ15" s="9"/>
+    </row>
+    <row r="16" spans="1:45" ht="17">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="30">
-        <v>30210</v>
+        <v>30203</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" s="1">
-        <f>I16+J16</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1">
         <f>M16+J16</f>
-        <v>16</v>
-      </c>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-    </row>
-    <row r="17" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+    </row>
+    <row r="17" spans="1:45" ht="17">
+      <c r="A17" t="s">
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19">
-        <v>31303</v>
+      <c r="D17" s="30">
+        <v>30226</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17+J17</f>
-        <v>14</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17"/>
-      <c r="AP17" s="7"/>
-    </row>
-    <row r="18" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC17" s="18"/>
+      <c r="AO17" s="18"/>
+    </row>
+    <row r="18" spans="1:45" ht="17">
       <c r="A18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="30">
-        <v>30211</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
+        <v>30201</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="1">
         <v>12</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>2</v>
       </c>
       <c r="K18" s="1">
-        <f>I18+J18</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18"/>
-      <c r="AP18" s="9"/>
-    </row>
-    <row r="19" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP18"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+    </row>
+    <row r="19" spans="1:45" ht="17">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="30">
-        <v>30212</v>
+        <v>30223</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>45</v>
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="1">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1">
-        <f>I19+J19</f>
-        <v>16</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19"/>
-      <c r="U19" s="17"/>
-      <c r="AP19" s="9"/>
-    </row>
-    <row r="20" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="L19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <f>M19+J19</f>
+        <v>14</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ19" s="9"/>
+    </row>
+    <row r="20" spans="1:45" ht="17">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1722,34 +1968,43 @@
         <v>2</v>
       </c>
       <c r="K20" s="1">
-        <f>I20+J20</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20"/>
-      <c r="AB20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="9"/>
+      <c r="O20" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC20" s="18"/>
+      <c r="AO20" s="18"/>
       <c r="AP20" s="9"/>
-    </row>
-    <row r="21" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="AQ20" s="9"/>
+    </row>
+    <row r="21" spans="1:45" ht="17">
       <c r="A21" s="20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="30">
-        <v>30214</v>
+        <v>30228</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>51</v>
+        <v>130</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I21" s="1">
         <v>14</v>
@@ -1758,274 +2013,325 @@
         <v>2</v>
       </c>
       <c r="K21" s="1">
-        <f>I21+J21</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="O21" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ21" s="9"/>
+    </row>
+    <row r="22" spans="1:45" ht="17">
+      <c r="A22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="19">
+        <v>31301</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22"/>
+      <c r="O22" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+    </row>
+    <row r="23" spans="1:45" ht="17">
+      <c r="A23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="30">
+        <v>30222</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP23" s="7"/>
+    </row>
+    <row r="24" spans="1:45" ht="17">
+      <c r="A24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="30">
+        <v>30227</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AC21" s="12"/>
-    </row>
-    <row r="22" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="30">
-        <v>30215</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="1">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1">
-        <f>I22+J22</f>
-        <v>14</v>
-      </c>
-      <c r="AP22" s="9"/>
-    </row>
-    <row r="23" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="30">
-        <v>30216</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1">
-        <v>14</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="1">
-        <f>I23+J23</f>
-        <v>16</v>
-      </c>
-      <c r="L23" s="21"/>
-      <c r="M23"/>
-      <c r="AO23"/>
-    </row>
-    <row r="24" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="O24" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ24" s="9"/>
+    </row>
+    <row r="25" spans="1:45" ht="17">
+      <c r="A25" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="30">
-        <v>30217</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="1">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" s="1">
-        <f>I24+J24</f>
-        <v>18</v>
-      </c>
-      <c r="L24" s="21"/>
-      <c r="M24"/>
-      <c r="O24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP24" s="14"/>
-    </row>
-    <row r="25" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="30">
-        <v>30218</v>
+        <v>30202</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" s="1">
-        <f>I25+J25</f>
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25"/>
+      <c r="O25" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ25" s="9"/>
+    </row>
+    <row r="26" spans="1:45" ht="34">
+      <c r="A26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="30">
+        <v>30205</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="1">
         <v>12</v>
       </c>
-      <c r="L25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-      <c r="N25" s="1">
-        <f>M25+J25</f>
-        <v>12</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="AO25" s="7"/>
-    </row>
-    <row r="26" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="1">
+        <v>14</v>
+      </c>
+      <c r="N26" s="1">
+        <f>M26+J26</f>
+        <v>16</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="9"/>
+    </row>
+    <row r="27" spans="1:45" ht="17">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="19">
-        <v>31301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="27" t="s">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="30">
+        <v>30216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1">
-        <f>I26+J26</f>
-        <v>12</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-    </row>
-    <row r="27" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="19">
-        <v>31302</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
       <c r="I27" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" s="1">
-        <f>I27+J27</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-    </row>
-    <row r="28" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="O27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP27"/>
+    </row>
+    <row r="28" spans="1:45" ht="17">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="30">
-        <v>30219</v>
+        <v>68</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <f>I28+J28</f>
-        <v>20</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28"/>
-      <c r="AP28" s="9"/>
-    </row>
-    <row r="29" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="O28" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="AQ28" s="9"/>
+    </row>
+    <row r="29" spans="1:45" ht="17">
       <c r="A29" s="20" t="s">
         <v>56</v>
       </c>
@@ -2051,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="1">
-        <f>I29+J29</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L29" s="22" t="s">
@@ -2063,9 +2369,18 @@
       <c r="N29" s="1">
         <v>18</v>
       </c>
-      <c r="AP29" s="9"/>
-    </row>
-    <row r="30" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="O29" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ29" s="9"/>
+    </row>
+    <row r="30" spans="1:45" ht="17">
       <c r="A30" s="20" t="s">
         <v>56</v>
       </c>
@@ -2091,104 +2406,127 @@
         <v>2</v>
       </c>
       <c r="K30" s="1">
-        <f>I30+J30</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AP30" s="8"/>
-    </row>
-    <row r="31" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>62</v>
+      <c r="O30" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ30" s="8"/>
+    </row>
+    <row r="31" spans="1:45" ht="17">
+      <c r="A31" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="30">
-        <v>30222</v>
+        <v>68</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I31" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
       </c>
       <c r="K31" s="1">
-        <f>I31+J31</f>
-        <v>12</v>
-      </c>
-      <c r="AO31" s="7"/>
-    </row>
-    <row r="32" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ31" s="9"/>
+    </row>
+    <row r="32" spans="1:45" ht="17">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="30">
-        <v>30223</v>
+      <c r="D32" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="1">
-        <v>12</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1">
-        <f>I32+J32</f>
-        <v>14</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="M32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N32" s="1">
         <f>M32+J32</f>
-        <v>14</v>
-      </c>
-      <c r="AP32" s="9"/>
-    </row>
-    <row r="33" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>62</v>
+        <v>12</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="AP32" s="7"/>
+    </row>
+    <row r="33" spans="1:45" ht="17">
+      <c r="A33" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="30">
-        <v>30224</v>
+      <c r="D33" s="19">
+        <v>31302</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
@@ -2197,31 +2535,41 @@
         <v>2</v>
       </c>
       <c r="K33" s="1">
-        <f>I33+J33</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33"/>
-      <c r="AP33" s="15"/>
-    </row>
-    <row r="34" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>62</v>
+      <c r="O33" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+    </row>
+    <row r="34" spans="1:45" ht="17">
+      <c r="A34" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>108</v>
+      <c r="D34" s="19">
+        <v>31303</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I34" s="1">
         <v>12</v>
@@ -2230,213 +2578,268 @@
         <v>2</v>
       </c>
       <c r="K34" s="1">
-        <f>I34+J34</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34"/>
-      <c r="AP34" s="9"/>
-    </row>
-    <row r="35" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="O34" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ34" s="7"/>
+    </row>
+    <row r="35" spans="1:45" ht="17">
       <c r="A35" s="20" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="30">
-        <v>30225</v>
+        <v>30211</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I35" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1">
-        <f>I35+J35</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35"/>
-      <c r="AP35" s="9"/>
+      <c r="O35" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>156</v>
+      </c>
       <c r="AQ35" s="9"/>
     </row>
-    <row r="36" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" spans="1:45" ht="17">
+      <c r="A36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>104</v>
+      <c r="D36" s="30">
+        <v>30215</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" t="s">
-        <v>58</v>
+        <v>129</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="I36" s="1">
-        <v>18</v>
-      </c>
-      <c r="J36">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
       </c>
       <c r="K36" s="1">
-        <f>I36+J36</f>
-        <v>26</v>
-      </c>
-      <c r="L36" s="21"/>
-      <c r="M36"/>
-      <c r="AP36" s="9"/>
-    </row>
-    <row r="37" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q36" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ36" s="9"/>
+    </row>
+    <row r="37" spans="1:45" ht="17">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="30">
-        <v>30226</v>
+        <v>30212</v>
       </c>
       <c r="E37" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="I37" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37" s="1">
-        <f>I37+J37</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37"/>
-      <c r="AB37" s="18"/>
-      <c r="AN37" s="18"/>
-    </row>
-    <row r="38" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="O37" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q37" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="V37" s="17"/>
+      <c r="AQ37" s="9"/>
+    </row>
+    <row r="38" spans="1:45" ht="17">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="1">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38"/>
+      <c r="O38" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q38" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="V38" s="17"/>
+      <c r="AP38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+    </row>
+    <row r="39" spans="1:45" ht="17">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="30">
-        <v>30227</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1">
-        <f>I38+J38</f>
-        <v>12</v>
-      </c>
-      <c r="L38" s="22" t="s">
+      <c r="D39" s="30">
+        <v>30217</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
         <v>45</v>
       </c>
-      <c r="AP38" s="9"/>
-    </row>
-    <row r="39" spans="1:43" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="30">
-        <v>30228</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="I39" s="1">
-        <v>14</v>
-      </c>
-      <c r="J39" s="1">
+        <v>16</v>
+      </c>
+      <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" s="1">
-        <f>I39+J39</f>
-        <v>16</v>
-      </c>
-      <c r="AP39" s="9"/>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39"/>
+      <c r="O39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ39" s="14"/>
+    </row>
+    <row r="40" spans="1:45">
       <c r="D40" s="19"/>
       <c r="H40" s="20"/>
       <c r="J40"/>
       <c r="L40" s="21"/>
       <c r="M40"/>
-      <c r="AO40"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="16"/>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AP40"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="16"/>
+    </row>
+    <row r="41" spans="1:45">
       <c r="D41" s="6"/>
-      <c r="AO41" s="8"/>
-      <c r="AP41" s="13"/>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="13"/>
+    </row>
+    <row r="42" spans="1:45">
       <c r="D42" s="6"/>
-      <c r="AC42" s="12"/>
-      <c r="AO42" s="7"/>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AD42" s="12"/>
+      <c r="AP42" s="7"/>
+    </row>
+    <row r="43" spans="1:45">
       <c r="D43" s="6"/>
-      <c r="AO43" s="7"/>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="AO44" s="7"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="AP43" s="7"/>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="AP44" s="7"/>
+    </row>
+    <row r="54" spans="7:7">
       <c r="G54" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR54" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR54">
-      <sortCondition ref="A1:A54"/>
+  <autoFilter ref="A1:AS54" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS54">
+      <sortCondition ref="H1:H54"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
@@ -2452,14 +2855,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2538,12 +2941,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -2551,7 +2954,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="25" t="s">
         <v>132</v>
       </c>

--- a/summer23/Lehrplanung-S23-Master.xlsx
+++ b/summer23/Lehrplanung-S23-Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwunderlich/Nextcloud/LEHRPLANUNG_shared/S23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD124C5-8E0E-A447-BFB1-4615F80C4493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA1F85-873D-3241-8585-C4ADDDBCBFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="780" windowWidth="34760" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrangebot" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadaten" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lehrangebot!$A$1:$AS$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lehrangebot!$A$1:$AS$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="166">
   <si>
     <t>Modul</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Dozent2</t>
   </si>
   <si>
-    <t>Marques</t>
-  </si>
-  <si>
     <t>N.N.</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>32615a</t>
   </si>
   <si>
-    <t>32102a</t>
-  </si>
-  <si>
     <t>alt_Modul</t>
   </si>
   <si>
@@ -515,6 +509,33 @@
   </si>
   <si>
     <t>PC Pool</t>
+  </si>
+  <si>
+    <t>31503a</t>
+  </si>
+  <si>
+    <t>31502a</t>
+  </si>
+  <si>
+    <t>31501a</t>
+  </si>
+  <si>
+    <t>33872a</t>
+  </si>
+  <si>
+    <t>32602a</t>
+  </si>
+  <si>
+    <t>30224a</t>
+  </si>
+  <si>
+    <t>30216a</t>
+  </si>
+  <si>
+    <t>30202a</t>
+  </si>
+  <si>
+    <t>Marques Hill</t>
   </si>
 </sst>
 </file>
@@ -685,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -751,6 +772,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -979,12 +1001,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS54"/>
+  <dimension ref="A1:AS57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="topRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1036,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -1060,19 +1082,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>8</v>
@@ -1081,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>10</v>
@@ -1166,195 +1188,210 @@
       </c>
     </row>
     <row r="2" spans="1:45" ht="17">
-      <c r="A2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
+      <c r="A2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I2" s="1">
-        <v>12</v>
-      </c>
-      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1">
         <v>2</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K39" si="0">I2+J2</f>
-        <v>14</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2"/>
+        <f t="shared" ref="K2:K42" si="0">I2+J2</f>
+        <v>16</v>
+      </c>
       <c r="O2" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ2" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP2" s="7"/>
     </row>
     <row r="3" spans="1:45" ht="17">
       <c r="A3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="I3" s="1">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3"/>
       <c r="O3" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP3"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
     </row>
     <row r="4" spans="1:45" ht="17">
-      <c r="A4" s="23" t="s">
-        <v>62</v>
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>110</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>131</v>
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4"/>
       <c r="O4" s="33" t="s">
-        <v>148</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
       <c r="AQ4" s="9"/>
     </row>
     <row r="5" spans="1:45" ht="17">
       <c r="A5" s="20" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="30">
-        <v>30209</v>
+        <v>68</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" spans="1:45" ht="17">
-      <c r="A6" s="20" t="s">
-        <v>62</v>
+      <c r="A6" t="s">
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="30">
-        <v>30224</v>
+        <v>68</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6"/>
       <c r="O6" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P6" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ6" s="15"/>
+      <c r="V6" s="17"/>
+      <c r="AP6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
     </row>
     <row r="7" spans="1:45" ht="17">
       <c r="A7" s="20" t="s">
@@ -1370,7 +1407,7 @@
         <v>66</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>51</v>
@@ -1386,13 +1423,13 @@
         <v>14</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AQ7" s="9"/>
     </row>
@@ -1435,13 +1472,13 @@
         <v>18</v>
       </c>
       <c r="O8" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="AP8" s="14"/>
       <c r="AQ8" s="9"/>
@@ -1449,175 +1486,175 @@
     </row>
     <row r="9" spans="1:45" ht="17">
       <c r="A9" s="20" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>142</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="30">
+        <v>30207</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ9" s="9"/>
+    </row>
+    <row r="10" spans="1:45" ht="17">
+      <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="30">
+        <v>30208</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1">
         <v>16</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ10" s="9"/>
+    </row>
+    <row r="11" spans="1:45" ht="17">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="30">
+        <v>30203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <f>M11+J11</f>
+        <v>12</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP9" s="7"/>
-    </row>
-    <row r="10" spans="1:45" ht="17">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="30">
-        <v>30210</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="1">
-        <v>14</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10" s="1">
-        <f>M10+J10</f>
-        <v>16</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-    </row>
-    <row r="11" spans="1:45" ht="17">
-      <c r="A11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="30">
-        <v>30214</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD11" s="12"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
     </row>
     <row r="12" spans="1:45" ht="17">
       <c r="A12" s="20" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>140</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="30">
+        <v>30201</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>51</v>
+        <v>121</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I12" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="AP12"/>
       <c r="AQ12" s="8"/>
@@ -1628,348 +1665,322 @@
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="30">
-        <v>30207</v>
-      </c>
-      <c r="E13" s="20" t="s">
+        <v>30202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13"/>
+      <c r="O13" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ13" s="9"/>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="20"/>
+      <c r="D14" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="J14"/>
+      <c r="L14" s="21"/>
+      <c r="M14"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="AQ14" s="9"/>
+    </row>
+    <row r="15" spans="1:45" ht="34">
+      <c r="A15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="30">
+        <v>30205</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1">
+        <f>M15+J15</f>
+        <v>16</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="9"/>
+    </row>
+    <row r="16" spans="1:45" ht="17">
+      <c r="A16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="30">
+        <v>30209</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="G16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="I13" s="1">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ13" s="9"/>
-    </row>
-    <row r="14" spans="1:45" ht="17">
-      <c r="A14" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="30">
-        <v>30208</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="1">
-        <v>16</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ14" s="9"/>
-    </row>
-    <row r="15" spans="1:45" ht="17">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="30">
-        <v>30219</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="1">
-        <v>18</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15"/>
-      <c r="O15" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ15" s="9"/>
-    </row>
-    <row r="16" spans="1:45" ht="17">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="30">
-        <v>30203</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>2</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16" s="1">
-        <f>M16+J16</f>
-        <v>12</v>
-      </c>
       <c r="O16" s="33" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-    </row>
-    <row r="17" spans="1:45" ht="17">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ16" s="9"/>
+    </row>
+    <row r="17" spans="1:44" ht="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="30">
-        <v>30226</v>
+        <v>30210</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>39</v>
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
       </c>
       <c r="I17" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17"/>
+        <v>16</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1">
+        <f>M17+J17</f>
+        <v>16</v>
+      </c>
       <c r="O17" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+    </row>
+    <row r="18" spans="1:44" ht="17">
+      <c r="A18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="30">
+        <v>30214</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P17" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC17" s="18"/>
-      <c r="AO17" s="18"/>
-    </row>
-    <row r="18" spans="1:45" ht="17">
-      <c r="A18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="30">
-        <v>30201</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="1">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O18" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>146</v>
-      </c>
       <c r="Q18" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP18"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-    </row>
-    <row r="19" spans="1:45" ht="17">
+        <v>155</v>
+      </c>
+      <c r="AD18" s="12"/>
+    </row>
+    <row r="19" spans="1:44" ht="17">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="30">
-        <v>30223</v>
+        <v>30213</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19" s="1">
-        <f>M19+J19</f>
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19"/>
       <c r="O19" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AC19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
     </row>
-    <row r="20" spans="1:45" ht="17">
-      <c r="A20" t="s">
+    <row r="20" spans="1:44" ht="17">
+      <c r="A20" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="30">
-        <v>30213</v>
+      <c r="D20" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
       </c>
       <c r="I20" s="1">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20"/>
@@ -1977,278 +1988,266 @@
         <v>149</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AC20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-    </row>
-    <row r="21" spans="1:45" ht="17">
+      <c r="AQ20" s="7"/>
+    </row>
+    <row r="21" spans="1:44" ht="17">
       <c r="A21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="30">
-        <v>30228</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>39</v>
+        <v>30211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="L21" s="21"/>
+      <c r="M21"/>
       <c r="O21" s="33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q21" s="33" t="s">
         <v>154</v>
       </c>
       <c r="AQ21" s="9"/>
     </row>
-    <row r="22" spans="1:45" ht="17">
-      <c r="A22" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" spans="1:44" ht="17">
+      <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="19">
-        <v>31301</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>42</v>
+      <c r="D22" s="30">
+        <v>30215</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1">
         <v>2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22"/>
+        <v>14</v>
+      </c>
       <c r="O22" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>155</v>
+      </c>
       <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-    </row>
-    <row r="23" spans="1:45" ht="17">
-      <c r="A23" s="27" t="s">
+    </row>
+    <row r="23" spans="1:44" ht="17">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="30">
+        <v>30212</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23"/>
+      <c r="O23" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="AQ23" s="9"/>
+    </row>
+    <row r="24" spans="1:44" ht="17">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="30">
-        <v>30222</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q23" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP23" s="7"/>
-    </row>
-    <row r="24" spans="1:45" ht="17">
-      <c r="A24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" s="30">
-        <v>30227</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>42</v>
+        <v>30219</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
       </c>
       <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+        <v>18</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>45</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24"/>
       <c r="O24" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>157</v>
-      </c>
       <c r="AQ24" s="9"/>
     </row>
-    <row r="25" spans="1:45" ht="17">
-      <c r="A25" s="20" t="s">
-        <v>37</v>
+    <row r="25" spans="1:44" ht="17">
+      <c r="A25" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="30">
-        <v>30202</v>
+      <c r="D25" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25"/>
       <c r="O25" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>152</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
       <c r="AQ25" s="9"/>
-    </row>
-    <row r="26" spans="1:45" ht="34">
-      <c r="A26" s="20" t="s">
-        <v>37</v>
+      <c r="AR25" s="9"/>
+    </row>
+    <row r="26" spans="1:44" ht="17">
+      <c r="A26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="30">
-        <v>30205</v>
+        <v>30222</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J26" s="1">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="1">
-        <v>14</v>
-      </c>
-      <c r="N26" s="1">
-        <f>M26+J26</f>
-        <v>16</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="P26" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC26" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="9"/>
-    </row>
-    <row r="27" spans="1:45" ht="17">
+      <c r="O26" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP26" s="7"/>
+    </row>
+    <row r="27" spans="1:44" ht="17">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2262,10 +2261,10 @@
         <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
@@ -2283,55 +2282,30 @@
       <c r="L27" s="21"/>
       <c r="M27"/>
       <c r="O27" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q27" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="P27" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>147</v>
-      </c>
       <c r="AP27"/>
     </row>
-    <row r="28" spans="1:45" ht="17">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="1">
-        <v>16</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+    <row r="28" spans="1:44">
+      <c r="D28" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="J28"/>
       <c r="L28" s="21"/>
       <c r="M28"/>
-      <c r="O28" s="33" t="s">
-        <v>148</v>
-      </c>
+      <c r="O28" s="33"/>
       <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="AQ28" s="9"/>
-    </row>
-    <row r="29" spans="1:45" ht="17">
+      <c r="Q28" s="32"/>
+      <c r="AP28"/>
+    </row>
+    <row r="29" spans="1:44" ht="17">
       <c r="A29" s="20" t="s">
         <v>56</v>
       </c>
@@ -2370,17 +2344,17 @@
         <v>18</v>
       </c>
       <c r="O29" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>151</v>
-      </c>
       <c r="AQ29" s="9"/>
     </row>
-    <row r="30" spans="1:45" ht="17">
+    <row r="30" spans="1:44" ht="17">
       <c r="A30" s="20" t="s">
         <v>56</v>
       </c>
@@ -2410,74 +2384,80 @@
         <v>18</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AQ30" s="8"/>
     </row>
-    <row r="31" spans="1:45" ht="17">
-      <c r="A31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>42</v>
+    <row r="31" spans="1:44" ht="17">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
       </c>
       <c r="I31" s="1">
-        <v>18</v>
-      </c>
-      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31" s="1">
+        <f>M31+J31</f>
+        <v>12</v>
       </c>
       <c r="O31" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ31" s="9"/>
-    </row>
-    <row r="32" spans="1:45" ht="17">
-      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="AP31" s="7"/>
+    </row>
+    <row r="32" spans="1:44" ht="17">
+      <c r="A32" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>139</v>
+      <c r="D32" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
@@ -2492,84 +2472,80 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32" s="1">
-        <f>M32+J32</f>
-        <v>12</v>
-      </c>
+      <c r="L32" s="21"/>
+      <c r="M32"/>
       <c r="O32" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="AP32" s="7"/>
-    </row>
-    <row r="33" spans="1:45" ht="17">
-      <c r="A33" s="23" t="s">
+      <c r="Q32" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+    </row>
+    <row r="33" spans="1:44" ht="17">
+      <c r="A33" t="s">
         <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="19">
-        <v>31302</v>
+      <c r="D33" s="30">
+        <v>30217</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
         <v>45</v>
       </c>
       <c r="I33" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33"/>
-      <c r="O33" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P33" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q33" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-    </row>
-    <row r="34" spans="1:45" ht="17">
-      <c r="A34" s="20" t="s">
-        <v>50</v>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ33" s="14"/>
+    </row>
+    <row r="34" spans="1:44" ht="17">
+      <c r="A34" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="19">
-        <v>31303</v>
+      <c r="D34" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>133</v>
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I34" s="1">
         <v>12</v>
@@ -2584,266 +2560,354 @@
       <c r="L34" s="21"/>
       <c r="M34"/>
       <c r="O34" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q34" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ34" s="7"/>
-    </row>
-    <row r="35" spans="1:45" ht="17">
+        <v>146</v>
+      </c>
+      <c r="AQ34" s="9"/>
+    </row>
+    <row r="35" spans="1:44" ht="17">
       <c r="A35" s="20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="30">
-        <v>30211</v>
+      <c r="D35" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I35" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35"/>
       <c r="O35" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q35" s="33" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AQ35" s="9"/>
-    </row>
-    <row r="36" spans="1:45" ht="17">
-      <c r="A36" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="AR35" s="9"/>
+    </row>
+    <row r="36" spans="1:44" ht="17">
+      <c r="A36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="30">
-        <v>30215</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>128</v>
+      <c r="D36" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>45</v>
+      <c r="H36" t="s">
+        <v>58</v>
       </c>
       <c r="I36" s="1">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36"/>
       <c r="O36" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q36" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="AQ36" s="9"/>
     </row>
-    <row r="37" spans="1:45" ht="17">
-      <c r="A37" t="s">
-        <v>50</v>
+    <row r="37" spans="1:44" ht="17">
+      <c r="A37" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="30">
-        <v>30212</v>
+        <v>30224</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>45</v>
+        <v>102</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="I37" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37"/>
       <c r="O37" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q37" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="P37" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q37" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="V37" s="17"/>
-      <c r="AQ37" s="9"/>
-    </row>
-    <row r="38" spans="1:45" ht="17">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="1">
-        <v>16</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="AQ37" s="15"/>
+    </row>
+    <row r="38" spans="1:44">
+      <c r="A38" s="20"/>
+      <c r="D38" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="27"/>
+      <c r="J38"/>
       <c r="L38" s="21"/>
       <c r="M38"/>
-      <c r="O38" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="V38" s="17"/>
-      <c r="AP38"/>
-      <c r="AR38"/>
-      <c r="AS38"/>
-    </row>
-    <row r="39" spans="1:45" ht="17">
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="AQ38" s="15"/>
+    </row>
+    <row r="39" spans="1:44" ht="17">
       <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="30">
-        <v>30217</v>
+        <v>30226</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" t="s">
-        <v>45</v>
+        <v>97</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="I39" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L39" s="21"/>
       <c r="M39"/>
-      <c r="O39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ39" s="14"/>
-    </row>
-    <row r="40" spans="1:45">
-      <c r="D40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="J40"/>
-      <c r="L40" s="21"/>
-      <c r="M40"/>
-      <c r="AP40"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="16"/>
-    </row>
-    <row r="41" spans="1:45">
-      <c r="D41" s="6"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="13"/>
-    </row>
-    <row r="42" spans="1:45">
-      <c r="D42" s="6"/>
-      <c r="AD42" s="12"/>
-      <c r="AP42" s="7"/>
-    </row>
-    <row r="43" spans="1:45">
-      <c r="D43" s="6"/>
-      <c r="AP43" s="7"/>
-    </row>
-    <row r="44" spans="1:45">
-      <c r="AP44" s="7"/>
-    </row>
-    <row r="54" spans="7:7">
-      <c r="G54" s="29"/>
+      <c r="O39" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC39" s="18"/>
+      <c r="AO39" s="18"/>
+    </row>
+    <row r="40" spans="1:44" ht="17">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="30">
+        <v>30223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40">
+        <v>12</v>
+      </c>
+      <c r="N40" s="1">
+        <f>M40+J40</f>
+        <v>14</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q40" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ40" s="9"/>
+    </row>
+    <row r="41" spans="1:44" ht="17">
+      <c r="A41" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="30">
+        <v>30228</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1">
+        <v>14</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ41" s="9"/>
+    </row>
+    <row r="42" spans="1:44" ht="17">
+      <c r="A42" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="30">
+        <v>30227</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q42" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ42" s="9"/>
+    </row>
+    <row r="43" spans="1:44">
+      <c r="D43" s="19"/>
+      <c r="H43" s="20"/>
+      <c r="J43"/>
+      <c r="L43" s="21"/>
+      <c r="M43"/>
+      <c r="AP43"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="16"/>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="D44" s="6"/>
+      <c r="AP44" s="8"/>
+      <c r="AQ44" s="13"/>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="D45" s="6"/>
+      <c r="AD45" s="12"/>
+      <c r="AP45" s="7"/>
+    </row>
+    <row r="46" spans="1:44">
+      <c r="D46" s="6"/>
+      <c r="AP46" s="7"/>
+    </row>
+    <row r="47" spans="1:44">
+      <c r="AP47" s="7"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS54" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS54">
-      <sortCondition ref="H1:H54"/>
+  <autoFilter ref="A1:AS57" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS57">
+      <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2956,7 +3020,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1</v>
